--- a/0_helper_functions/helper_function_test/data/labeled_norm_10.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_10.xlsx
@@ -579,7 +579,7 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7315560194349049</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3586598656282549</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.4697679184721223</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05</v>
+        <v>0.2939535836944245</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01793299328141275</v>
+        <v>0.07046518777081835</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1358659865628255</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_10.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_10.xlsx
@@ -579,16 +579,16 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
+        <v>0.9844115883408524</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.2694244758795954</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4697679184721223</v>
+        <v>0.5531881259389425</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2939535836944245</v>
+        <v>0.4106376251877886</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07046518777081835</v>
+        <v>0.08297821889084138</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_10.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_10.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9844115883408524</v>
+        <v>0.9883801145439107</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.5670154274927466</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4020168007864574</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4339069516089719</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05168246111839951</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3898271413275484</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8467965569118661</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5840467141485536</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5831666528800635</v>
+      </c>
+      <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.2694244758795954</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.1111149820014982</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5531881259389425</v>
+        <v>0.790607244921643</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4106376251877886</v>
+        <v>0.3522134214535214</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08297821889084138</v>
+        <v>0.278371599619139</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.25</v>
+        <v>0.1037140698587048</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_10.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>PDI_STD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Size_STD</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Complexity_STD</t>
         </is>
@@ -570,16 +555,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7315560194349049</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -588,60 +573,51 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>20</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.3586598656282549</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.01793299328141275</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0.1358659865628255</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
